--- a/Scrum/Product Backlog Proyecto Mintic cliclo 4 SICITA.xlsx
+++ b/Scrum/Product Backlog Proyecto Mintic cliclo 4 SICITA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
   <si>
     <t>HISTORIA</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>creación de Activity registro de ingreso del vehículo a la cita</t>
+  </si>
+  <si>
+    <t>creación de Activity registro  de  marcas</t>
+  </si>
+  <si>
+    <t>creación de Activity registro  de  modelos</t>
   </si>
 </sst>
 </file>
@@ -616,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N48"/>
+  <dimension ref="B1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:I48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1592,6 +1598,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E19">

--- a/Scrum/Product Backlog Proyecto Mintic cliclo 4 SICITA.xlsx
+++ b/Scrum/Product Backlog Proyecto Mintic cliclo 4 SICITA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -624,20 +624,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -678,7 +678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -701,7 +701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -724,7 +724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>22</v>
       </c>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>23</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>27</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>24</v>
       </c>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>3</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>4</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>5</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>6</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>7</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>8</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>9</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>10</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>11</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>12</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>13</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>14</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>15</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>16</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>17</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>18</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>19</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>20</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>21</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>22</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>23</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>24</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>25</v>
       </c>
@@ -1598,12 +1598,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1" t="s">
         <v>80</v>
       </c>
